--- a/DATA_goal/Junction_Flooding_277.xlsx
+++ b/DATA_goal/Junction_Flooding_277.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41709.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.79</v>
+        <v>0.28</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.68</v>
+        <v>0.27</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.95</v>
+        <v>0.1</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.24</v>
+        <v>0.12</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="R2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.04</v>
       </c>
-      <c r="S2" s="4" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.4</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>1.01</v>
+        <v>0.1</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.19</v>
+        <v>0.12</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.65</v>
+        <v>0.17</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>2.48</v>
+        <v>0.25</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.14</v>
+        <v>0.11</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41709.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>22</v>
+        <v>2.2</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>15.56</v>
+        <v>1.56</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>46.07</v>
+        <v>4.61</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>37.6</v>
+        <v>3.76</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>16.03</v>
+        <v>1.6</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>55.37</v>
+        <v>5.54</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>25.38</v>
+        <v>2.54</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>11.35</v>
+        <v>1.14</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>16.93</v>
+        <v>1.69</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>18.32</v>
+        <v>1.83</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>19.27</v>
+        <v>1.93</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.25</v>
+        <v>0.52</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>16.74</v>
+        <v>1.67</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>23.52</v>
+        <v>2.35</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>13.36</v>
+        <v>1.34</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.82</v>
+        <v>0.18</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>243.98</v>
+        <v>24.4</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>45.4</v>
+        <v>4.54</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>15.16</v>
+        <v>1.52</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>31.38</v>
+        <v>3.14</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>16.12</v>
+        <v>1.61</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.23</v>
+        <v>0.22</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>28.87</v>
+        <v>2.89</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>13.65</v>
+        <v>1.36</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>12.21</v>
+        <v>1.22</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>14.19</v>
+        <v>1.42</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>20.08</v>
+        <v>2.01</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>50.17</v>
+        <v>5.02</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>8.85</v>
+        <v>0.89</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>18.87</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41709.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>23.84</v>
+        <v>2.38</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>17.25</v>
+        <v>1.73</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>50.63</v>
+        <v>5.06</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>41.57</v>
+        <v>4.16</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>17.88</v>
+        <v>1.79</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>70.52</v>
+        <v>7.05</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>27.98</v>
+        <v>2.8</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>12.59</v>
+        <v>1.26</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>18.75</v>
+        <v>1.88</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>20.24</v>
+        <v>2.02</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>21.29</v>
+        <v>2.13</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.82</v>
+        <v>0.58</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>18.36</v>
+        <v>1.84</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>25.99</v>
+        <v>2.6</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>14.81</v>
+        <v>1.48</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>1.43</v>
+        <v>0.14</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>269.39</v>
+        <v>26.94</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>50.46</v>
+        <v>5.05</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>16.68</v>
+        <v>1.67</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>34.63</v>
+        <v>3.46</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>17.88</v>
+        <v>1.79</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.41</v>
+        <v>0.24</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>34.83</v>
+        <v>3.48</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>14.92</v>
+        <v>1.49</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>13.25</v>
+        <v>1.33</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>15.51</v>
+        <v>1.55</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>21.79</v>
+        <v>2.18</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>64.23</v>
+        <v>6.42</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>9.710000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>20.83</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41709.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>9.289999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.48</v>
+        <v>0.65</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>19.26</v>
+        <v>1.93</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>15.71</v>
+        <v>1.57</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.64</v>
+        <v>0.66</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>31.71</v>
+        <v>3.17</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>10.57</v>
+        <v>1.06</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.8</v>
+        <v>0.48</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>7.09</v>
+        <v>0.71</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>7.68</v>
+        <v>0.77</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>8.02</v>
+        <v>0.8</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.21</v>
+        <v>0.22</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.05</v>
+        <v>0.71</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>9.91</v>
+        <v>0.99</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.52</v>
+        <v>0.55</v>
       </c>
       <c r="R5" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S5" s="4" t="n">
         <v>0.08</v>
       </c>
-      <c r="S5" s="4" t="n">
-        <v>0.8</v>
-      </c>
       <c r="T5" s="4" t="n">
-        <v>97.8</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>19.2</v>
+        <v>1.92</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.29</v>
+        <v>0.63</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>13.36</v>
+        <v>1.34</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.74</v>
+        <v>0.67</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>15.05</v>
+        <v>1.5</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.69</v>
+        <v>0.57</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.12</v>
+        <v>0.51</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.97</v>
+        <v>0.6</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>8.449999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>29.09</v>
+        <v>2.91</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.75</v>
+        <v>0.38</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>7.85</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41709.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>9.02</v>
+        <v>0.9</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>6.37</v>
+        <v>0.64</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>18.83</v>
+        <v>1.88</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>15.41</v>
+        <v>1.54</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>6.55</v>
+        <v>0.65</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>27.52</v>
+        <v>2.75</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>10.36</v>
+        <v>1.04</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>4.68</v>
+        <v>0.47</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>6.96</v>
+        <v>0.7</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>7.53</v>
+        <v>0.75</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>7.87</v>
+        <v>0.79</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>2.16</v>
+        <v>0.22</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>6.88</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>9.67</v>
+        <v>0.97</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>5.42</v>
+        <v>0.54</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>95.52</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>18.68</v>
+        <v>1.87</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>6.16</v>
+        <v>0.62</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>12.94</v>
+        <v>1.29</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>6.6</v>
+        <v>0.66</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>13.29</v>
+        <v>1.33</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>5.55</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>4.98</v>
+        <v>0.5</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>5.82</v>
+        <v>0.58</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>8.199999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>24.94</v>
+        <v>2.49</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>3.66</v>
+        <v>0.37</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>7.7</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41709.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>24.33</v>
+        <v>2.43</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>17.94</v>
+        <v>1.79</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>52.27</v>
+        <v>5.23</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>43.09</v>
+        <v>4.31</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>18.69</v>
+        <v>1.87</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>70.20999999999999</v>
+        <v>7.02</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>28.99</v>
+        <v>2.9</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>13.05</v>
+        <v>1.31</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>19.47</v>
+        <v>1.95</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>20.95</v>
+        <v>2.1</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>22.09</v>
+        <v>2.21</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>6.03</v>
+        <v>0.6</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>18.89</v>
+        <v>1.89</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>26.87</v>
+        <v>2.69</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>15.41</v>
+        <v>1.54</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>1.06</v>
+        <v>0.11</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>278.69</v>
+        <v>27.87</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>52.29</v>
+        <v>5.23</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>17.27</v>
+        <v>1.73</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>35.67</v>
+        <v>3.57</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>18.58</v>
+        <v>1.86</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>2.47</v>
+        <v>0.25</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>34.88</v>
+        <v>3.49</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>15.35</v>
+        <v>1.54</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>13.56</v>
+        <v>1.36</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>15.93</v>
+        <v>1.59</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>22.27</v>
+        <v>2.23</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>63.69</v>
+        <v>6.37</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>9.98</v>
+        <v>1</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>21.6</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41709.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>15.35</v>
+        <v>1.54</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>11.24</v>
+        <v>1.12</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>32.83</v>
+        <v>3.28</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>27.03</v>
+        <v>2.7</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>11.69</v>
+        <v>1.17</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>48.57</v>
+        <v>4.86</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>18.18</v>
+        <v>1.82</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>8.210000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>12.22</v>
+        <v>1.22</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>13.16</v>
+        <v>1.32</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>13.85</v>
+        <v>1.38</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>3.79</v>
+        <v>0.38</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>11.89</v>
+        <v>1.19</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>16.9</v>
+        <v>1.69</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>9.640000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>172.27</v>
+        <v>17.23</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>32.9</v>
+        <v>3.29</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>10.83</v>
+        <v>1.08</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>22.5</v>
+        <v>2.25</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>11.65</v>
+        <v>1.17</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.55</v>
+        <v>0.16</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>23.43</v>
+        <v>2.34</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>9.640000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>8.539999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>10.03</v>
+        <v>1</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>14.03</v>
+        <v>1.4</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>44.23</v>
+        <v>4.42</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>6.29</v>
+        <v>0.63</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>13.54</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41709.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>21.85</v>
+        <v>2.19</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>16.16</v>
+        <v>1.62</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.65</v>
+        <v>0.06</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>47.04</v>
+        <v>4.7</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>38.8</v>
+        <v>3.88</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>16.85</v>
+        <v>1.69</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>65.42</v>
+        <v>6.54</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>26.1</v>
+        <v>2.61</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>11.76</v>
+        <v>1.18</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>17.53</v>
+        <v>1.75</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>18.86</v>
+        <v>1.89</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>19.89</v>
+        <v>1.99</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>5.43</v>
+        <v>0.54</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>16.99</v>
+        <v>1.7</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>24.2</v>
+        <v>2.42</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>13.89</v>
+        <v>1.39</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="S9" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="T9" s="4" t="n">
+        <v>25.01</v>
+      </c>
+      <c r="U9" s="4" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="V9" s="4" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="W9" s="4" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="X9" s="4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Y9" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="Z9" s="4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AA9" s="4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AB9" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AC9" s="4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AD9" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE9" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AF9" s="4" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="AG9" s="4" t="n">
         <v>0.9</v>
       </c>
-      <c r="T9" s="4" t="n">
-        <v>250.11</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>47.13</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>15.55</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>32.12</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>16.74</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>32.05</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>13.81</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>12.18</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>14.32</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>20.01</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>59.34</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>8.98</v>
-      </c>
       <c r="AH9" s="4" t="n">
-        <v>19.45</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41709.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>11.07</v>
+        <v>1.11</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>8.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>23.63</v>
+        <v>2.36</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>19.45</v>
+        <v>1.95</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>8.4</v>
+        <v>0.84</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>36.68</v>
+        <v>3.67</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>13.08</v>
+        <v>1.31</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>5.92</v>
+        <v>0.59</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>8.800000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>9.470000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>9.960000000000001</v>
+        <v>1</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>2.73</v>
+        <v>0.27</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>8.56</v>
+        <v>0.86</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>12.18</v>
+        <v>1.22</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>6.92</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.55</v>
+        <v>0.05</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>121.94</v>
+        <v>12.19</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>23.74</v>
+        <v>2.37</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>7.78</v>
+        <v>0.78</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>16.25</v>
+        <v>1.63</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>8.390000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.12</v>
+        <v>0.11</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>17.49</v>
+        <v>1.75</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>6.94</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>6.15</v>
+        <v>0.62</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>7.22</v>
+        <v>0.72</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>10.11</v>
+        <v>1.01</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>33.48</v>
+        <v>3.35</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>4.54</v>
+        <v>0.45</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>9.74</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_277.xlsx
+++ b/DATA_goal/Junction_Flooding_277.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41709.34027777778</v>
+        <v>44958.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.28</v>
+        <v>0.54</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.03</v>
+        <v>0.52</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.27</v>
+        <v>1.32</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.1</v>
+        <v>1.12</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.09</v>
+        <v>1.34</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.12</v>
+        <v>0.8</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.38</v>
       </c>
       <c r="K2" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="R2" s="4" t="n">
         <v>0.03</v>
       </c>
-      <c r="L2" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="P2" s="4" t="n">
+      <c r="S2" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="V2" s="4" t="n">
+      <c r="Z2" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AE2" s="4" t="n">
         <v>0.08</v>
       </c>
-      <c r="W2" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>0.11</v>
-      </c>
       <c r="AF2" s="4" t="n">
-        <v>0.1</v>
+        <v>1.11</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.38</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41709.34722222222</v>
+        <v>44958.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.56</v>
+        <v>1.37</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.61</v>
+        <v>3.9</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.76</v>
+        <v>3.22</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.6</v>
+        <v>1.42</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.54</v>
+        <v>5.08</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.54</v>
+        <v>2.21</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.69</v>
+        <v>1.53</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.83</v>
+        <v>1.63</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.93</v>
+        <v>1.68</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.52</v>
+        <v>0.46</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.67</v>
+        <v>1.39</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.35</v>
+        <v>2.02</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.34</v>
+        <v>1.19</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.18</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>24.4</v>
+        <v>20.98</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.54</v>
+        <v>3.99</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.52</v>
+        <v>1.3</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.14</v>
+        <v>2.64</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.61</v>
+        <v>1.48</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.89</v>
+        <v>2.57</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.36</v>
+        <v>1.16</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.01</v>
+        <v>1.71</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0.04</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.02</v>
+        <v>4.6</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.89</v>
+        <v>0.79</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.89</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41709.35416666666</v>
+        <v>44958.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.38</v>
+        <v>1.96</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.73</v>
+        <v>1.51</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>5.06</v>
+        <v>4.34</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4.16</v>
+        <v>3.58</v>
       </c>
       <c r="G4" s="4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="L4" s="4" t="n">
         <v>1.79</v>
       </c>
-      <c r="H4" s="4" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>2.02</v>
-      </c>
       <c r="M4" s="4" t="n">
-        <v>2.13</v>
+        <v>1.85</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.58</v>
+        <v>0.51</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.84</v>
+        <v>1.55</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.48</v>
+        <v>1.31</v>
       </c>
       <c r="R4" s="4" t="n">
         <v>0.02</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>26.94</v>
+        <v>23.28</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>5.05</v>
+        <v>4.42</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.46</v>
+        <v>2.95</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.79</v>
+        <v>1.61</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.48</v>
+        <v>3</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.49</v>
+        <v>1.28</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.55</v>
+        <v>1.39</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.18</v>
+        <v>1.88</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0.03</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>6.42</v>
+        <v>5.57</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.97</v>
+        <v>0.86</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.08</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41709.36111111111</v>
+        <v>44958.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.93</v>
+        <v>0.01</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.65</v>
+        <v>0.03</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4" t="n">
         <v>0.02</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.71</v>
-      </c>
       <c r="P5" s="4" t="n">
-        <v>0.99</v>
+        <v>0.08</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.03</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.01</v>
       </c>
       <c r="S5" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AC5" s="4" t="n">
         <v>0.08</v>
       </c>
-      <c r="T5" s="4" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>0.6</v>
-      </c>
       <c r="AD5" s="4" t="n">
-        <v>0.84</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.02</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.91</v>
+        <v>1.02</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.79</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41709.36805555555</v>
+        <v>44958.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.9</v>
+        <v>14.07</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.64</v>
+        <v>10.75</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.02</v>
+        <v>0.46</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>1.88</v>
+        <v>31.06</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>1.54</v>
+        <v>25.32</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.65</v>
+        <v>11.49</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>2.75</v>
+        <v>39.79</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.04</v>
+        <v>17.51</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.47</v>
+        <v>7.93</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.7</v>
+        <v>11.95</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>0.75</v>
+        <v>12.73</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>0.79</v>
+        <v>12.97</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.22</v>
+        <v>3.52</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>11.09</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>0.97</v>
+        <v>16.04</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.54</v>
+        <v>9.35</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.01</v>
+        <v>0.18</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>164.76</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>1.87</v>
+        <v>31.35</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.62</v>
+        <v>10.32</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>1.29</v>
+        <v>20.98</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.66</v>
+        <v>11.45</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.09</v>
+        <v>1.48</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>1.33</v>
+        <v>19.73</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>9.18</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.5</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.58</v>
+        <v>9.85</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>0.82</v>
+        <v>13.42</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.01</v>
+        <v>0.16</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>2.49</v>
+        <v>35.73</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.37</v>
+        <v>6.08</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41709.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>5.23</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>27.87</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>5.23</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>6.37</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>2.16</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41709.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>17.23</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41709.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>25.01</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41709.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41709.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>8.26</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>17.56</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>14.45</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>5.13</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>88.73999999999999</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>17.59</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>12.07</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>12.72</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>24.19</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>7.23</v>
+        <v>12.88</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_277.xlsx
+++ b/DATA_goal/Junction_Flooding_277.xlsx
@@ -451,14 +451,14 @@
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
@@ -468,9 +468,9 @@
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>44958.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.54</v>
+        <v>5.38</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.21</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.32</v>
+        <v>13.17</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.12</v>
+        <v>11.19</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.04</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.34</v>
+        <v>13.38</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.8</v>
+        <v>7.97</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.77</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.17</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.37</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.16</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.68</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.48</v>
+        <v>4.81</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.68</v>
+        <v>6.85</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.45</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>7.22</v>
+        <v>72.19</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.43</v>
+        <v>14.31</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.46</v>
+        <v>4.64</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.85</v>
+        <v>8.51</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.25</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.7</v>
+        <v>6.98</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.41</v>
+        <v>4.07</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.51</v>
+        <v>5.07</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.32</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.67</v>
+        <v>6.73</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.11</v>
+        <v>11.06</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.76</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44958.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.75</v>
+        <v>17.5</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.37</v>
+        <v>13.66</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.9</v>
+        <v>39.02</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.22</v>
+        <v>32.21</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.42</v>
+        <v>14.18</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.08</v>
+        <v>50.76</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.21</v>
+        <v>22.11</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.01</v>
+        <v>10.14</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.53</v>
+        <v>15.3</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.63</v>
+        <v>16.29</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.68</v>
+        <v>16.77</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.46</v>
+        <v>4.59</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.39</v>
+        <v>13.95</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.02</v>
+        <v>20.19</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.19</v>
+        <v>11.87</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>20.98</v>
+        <v>209.84</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.99</v>
+        <v>39.86</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.3</v>
+        <v>13.02</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.64</v>
+        <v>26.41</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.48</v>
+        <v>14.79</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.87</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.57</v>
+        <v>25.72</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.16</v>
+        <v>11.57</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.1</v>
+        <v>10.98</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.3</v>
+        <v>12.97</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.71</v>
+        <v>17.13</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.6</v>
+        <v>46.01</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.79</v>
+        <v>7.93</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.61</v>
+        <v>16.11</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44958.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.96</v>
+        <v>19.64</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.51</v>
+        <v>15.08</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.34</v>
+        <v>43.44</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.58</v>
+        <v>35.82</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.57</v>
+        <v>15.73</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>6.13</v>
+        <v>61.35</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.45</v>
+        <v>24.48</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.12</v>
+        <v>11.15</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.67</v>
+        <v>16.75</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.79</v>
+        <v>17.88</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.85</v>
+        <v>18.54</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.51</v>
+        <v>5.07</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.55</v>
+        <v>15.52</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.25</v>
+        <v>22.47</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.31</v>
+        <v>13.1</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>23.28</v>
+        <v>232.83</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.42</v>
+        <v>44.17</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.44</v>
+        <v>14.44</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.95</v>
+        <v>29.51</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.61</v>
+        <v>16.11</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.07</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3</v>
+        <v>30.05</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.28</v>
+        <v>12.84</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.18</v>
+        <v>11.84</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.39</v>
+        <v>13.93</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.88</v>
+        <v>18.81</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.28</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.57</v>
+        <v>55.74</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.86</v>
+        <v>8.57</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.8</v>
+        <v>17.98</v>
       </c>
     </row>
     <row r="5">
@@ -967,37 +967,37 @@
         <v>44958.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="D5" s="4" t="n">
         <v>0.01</v>
       </c>
-      <c r="C5" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="E5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.04</v>
+        <v>10.35</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.65</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>0</v>
@@ -1006,64 +1006,64 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.15</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.33</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.77</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.45</v>
+        <v>4.51</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.28</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.75</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.02</v>
+        <v>10.2</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_277.xlsx
+++ b/DATA_goal/Junction_Flooding_277.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,70 +655,70 @@
         <v>44958.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.38</v>
+        <v>5.378</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.21</v>
+        <v>5.209</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>13.17</v>
+        <v>13.173</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>11.19</v>
+        <v>11.188</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.04</v>
+        <v>5.041</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>13.38</v>
+        <v>13.381</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>7.97</v>
+        <v>7.973</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>3.77</v>
+        <v>3.774</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.17</v>
+        <v>6.167</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.37</v>
+        <v>6.371</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>6.16</v>
+        <v>6.162</v>
       </c>
       <c r="N2" s="4" t="n">
         <v>1.68</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>4.81</v>
+        <v>4.805</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6.85</v>
+        <v>6.849</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>4.45</v>
+        <v>4.447</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.3</v>
+        <v>0.297</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.42</v>
+        <v>0.425</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>72.19</v>
+        <v>72.19199999999999</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>14.31</v>
+        <v>14.308</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.64</v>
+        <v>4.642</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>8.51</v>
+        <v>8.505000000000001</v>
       </c>
       <c r="X2" s="4" t="n">
         <v>6.25</v>
@@ -727,31 +727,31 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>6.98</v>
+        <v>6.977</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>4.07</v>
+        <v>4.068</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.07</v>
+        <v>5.066</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.32</v>
+        <v>6.321</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.73</v>
+        <v>6.735</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.77</v>
+        <v>0.773</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>11.06</v>
+        <v>11.064</v>
       </c>
       <c r="AG2" s="4" t="n">
         <v>3.76</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.19</v>
+        <v>5.189</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44958.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>17.5</v>
+        <v>17.498</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>13.66</v>
+        <v>13.664</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.39</v>
+        <v>0.386</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>39.02</v>
+        <v>39.023</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>32.21</v>
+        <v>32.214</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>14.18</v>
+        <v>14.177</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>50.76</v>
+        <v>50.759</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>22.11</v>
+        <v>22.113</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>10.14</v>
+        <v>10.141</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>15.3</v>
+        <v>15.303</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>16.29</v>
+        <v>16.288</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>16.77</v>
+        <v>16.769</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.59</v>
+        <v>4.588</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>13.95</v>
+        <v>13.946</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>20.19</v>
+        <v>20.189</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>11.87</v>
+        <v>11.874</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.26</v>
+        <v>0.263</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.68</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>209.84</v>
+        <v>209.841</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>39.86</v>
+        <v>39.861</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>13.02</v>
+        <v>13.024</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>26.41</v>
+        <v>26.407</v>
       </c>
       <c r="X3" s="4" t="n">
         <v>14.79</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.87</v>
+        <v>1.873</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>25.72</v>
+        <v>25.722</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>11.57</v>
+        <v>11.574</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>10.98</v>
+        <v>10.979</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>12.97</v>
+        <v>12.968</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>17.13</v>
+        <v>17.132</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.42</v>
+        <v>0.419</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>46.01</v>
+        <v>46.013</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.93</v>
+        <v>7.933</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>16.11</v>
+        <v>16.106</v>
       </c>
     </row>
     <row r="4">
@@ -866,10 +866,10 @@
         <v>19.64</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>15.08</v>
+        <v>15.081</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.5</v>
+        <v>0.501</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>43.44</v>
@@ -881,52 +881,52 @@
         <v>15.73</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>61.35</v>
+        <v>61.346</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>24.48</v>
+        <v>24.478</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>11.15</v>
+        <v>11.155</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>16.75</v>
+        <v>16.749</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>17.88</v>
+        <v>17.885</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>18.54</v>
+        <v>18.544</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.07</v>
+        <v>5.072</v>
       </c>
       <c r="O4" s="4" t="n">
         <v>15.52</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>22.47</v>
+        <v>22.467</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>13.1</v>
+        <v>13.101</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.25</v>
+        <v>0.247</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.7</v>
+        <v>0.698</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>232.83</v>
+        <v>232.834</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>44.17</v>
+        <v>44.165</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>14.44</v>
+        <v>14.444</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>29.51</v>
+        <v>29.511</v>
       </c>
       <c r="X4" s="4" t="n">
         <v>16.11</v>
@@ -935,25 +935,25 @@
         <v>2.07</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>30.05</v>
+        <v>30.046</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>12.84</v>
+        <v>12.838</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>11.84</v>
+        <v>11.836</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>13.93</v>
+        <v>13.926</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>18.81</v>
+        <v>18.806</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.28</v>
+        <v>0.281</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>55.74</v>
+        <v>55.744</v>
       </c>
       <c r="AG4" s="4" t="n">
         <v>8.57</v>
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>0.29</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44958.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>14.07</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>31.06</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>25.32</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>11.49</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>39.79</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>17.51</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.93</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>12.97</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>16.04</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>164.76</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>31.35</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>10.32</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>20.98</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>19.73</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>9.18</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>9.85</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>13.42</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>35.73</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>12.88</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_277.xlsx
+++ b/DATA_goal/Junction_Flooding_277.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,37 +967,37 @@
         <v>44958.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.061</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.28</v>
+        <v>0.282</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.012</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.66</v>
+        <v>0.659</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.14</v>
+        <v>0.139</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>10.35</v>
+        <v>10.354</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.64</v>
+        <v>0.637</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.65</v>
+        <v>0.648</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.68</v>
+        <v>0.675</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.61</v>
+        <v>0.607</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>0</v>
@@ -1006,64 +1006,168 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.15</v>
+        <v>0.151</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.77</v>
+        <v>0.772</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.33</v>
+        <v>0.326</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.066</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.066</v>
       </c>
       <c r="T5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.77</v>
+        <v>1.766</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.24</v>
+        <v>0.238</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.21</v>
+        <v>1.209</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.049</v>
       </c>
       <c r="Z5" s="4" t="n">
         <v>4.51</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.28</v>
+        <v>0.285</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.67</v>
+        <v>0.675</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.75</v>
+        <v>0.752</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.67</v>
+        <v>0.673</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.21</v>
+        <v>0.209</v>
       </c>
       <c r="AF5" s="4" t="n">
         <v>10.2</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.38</v>
+        <v>0.383</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.29</v>
+        <v>0.287</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44958.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>14.07</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>31.06</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>25.32</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>11.49</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>39.79</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>17.51</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>7.93</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>12.97</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>16.04</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>164.76</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>31.35</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>10.32</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>20.98</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>19.73</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>13.42</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>35.73</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>12.88</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_277.xlsx
+++ b/DATA_goal/Junction_Flooding_277.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,37 +967,37 @@
         <v>44958.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.061</v>
+        <v>0.06</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.282</v>
+        <v>0.28</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.012</v>
+        <v>0.01</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.659</v>
+        <v>0.66</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.139</v>
+        <v>0.14</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>10.354</v>
+        <v>10.35</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.637</v>
+        <v>0.64</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.648</v>
+        <v>0.65</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.675</v>
+        <v>0.68</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.607</v>
+        <v>0.61</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>0</v>
@@ -1006,168 +1006,64 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.151</v>
+        <v>0.15</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.772</v>
+        <v>0.77</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.326</v>
+        <v>0.33</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.066</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.066</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.766</v>
+        <v>1.77</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.238</v>
+        <v>0.24</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.209</v>
+        <v>1.21</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.9409999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.049</v>
+        <v>0.05</v>
       </c>
       <c r="Z5" s="4" t="n">
         <v>4.51</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.285</v>
+        <v>0.28</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.675</v>
+        <v>0.67</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.752</v>
+        <v>0.75</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.673</v>
+        <v>0.67</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.209</v>
+        <v>0.21</v>
       </c>
       <c r="AF5" s="4" t="n">
         <v>10.2</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.383</v>
+        <v>0.38</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.287</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44958.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>14.07</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>31.06</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>25.32</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>11.49</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>39.79</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>17.51</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.93</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>12.97</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>16.04</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>164.76</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>31.35</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>10.32</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>20.98</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>19.73</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>9.18</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>9.85</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>13.42</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>35.73</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>12.88</v>
+        <v>0.29</v>
       </c>
     </row>
   </sheetData>
